--- a/medicine/Sexualité et sexologie/Le_Libertin_(Schmitt)/Le_Libertin_(Schmitt).xlsx
+++ b/medicine/Sexualité et sexologie/Le_Libertin_(Schmitt)/Le_Libertin_(Schmitt).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Libertin est une comédie d'Éric-Emmanuel Schmitt créée en  1997 au Théâtre Montparnasse et publiée la même année par les éditions Albin Michel.
@@ -512,7 +524,9 @@
           <t>Argument</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mettant en scène Denis Diderot, Schmitt s'interroge sur la morale, et plus particulièrement celle des mœurs sexuelles à travers la propre interrogation du célèbre philosophe qui doit rédiger dans l'urgence un article de l'Encyclopédie. Les différentes facettes du philosophe sont représentées par les femmes de son entourage, qui font ressortir le dilemme moral découlant de la sexualité.
 </t>
@@ -543,9 +557,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Éric-Emmanuel Schmitt est un spécialiste de Diderot auquel il avait consacré sa thèse de philosophie soutenue à la Sorbonne en 1987 et publiée en 1997[1][source insuffisante].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Éric-Emmanuel Schmitt est un spécialiste de Diderot auquel il avait consacré sa thèse de philosophie soutenue à la Sorbonne en 1987 et publiée en 1997[source insuffisante].
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Metteur en scène : Bernard Murat
 Décors : Nicolas Sire
@@ -607,7 +625,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bernard Giraudeau :  Denis Diderot, philosophe
 Christiane Cohendy : Anna Dorothea Therbouche, portraitiste
@@ -642,9 +662,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La pièce a reçu six nominations dont un Molière aux Molières 1997[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La pièce a reçu six nominations dont un Molière aux Molières 1997.
 Molière du comédien : Bernard Giraudeau
 Molière de la comédienne dans un second rôle : Élisabeth Commelin
 Molière de l'auteur : Éric-Emmanuel Schmitt
@@ -678,7 +700,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le Libertin, film de Gabriel Aghion (2000)</t>
         </is>
